--- a/analysis/data/raw_data/Room&Time_DG.xlsx
+++ b/analysis/data/raw_data/Room&Time_DG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Thursday" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>Poster Session 3 --- (60 posters)</t>
   </si>
   <si>
-    <t>Poster Session 4 --- (100 posters)</t>
-  </si>
-  <si>
     <t>Poster Session 6 --- (60 posters)</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Poster Session 10 --- (60 posters)</t>
+  </si>
+  <si>
+    <t>Poster Session 4 --- (After Hours - 100 posters)</t>
   </si>
 </sst>
 </file>
@@ -955,15 +955,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE45"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2:AP37"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL40" sqref="AL40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" style="17" customWidth="1"/>
-    <col min="2" max="57" width="7.140625" style="17" customWidth="1"/>
+    <col min="2" max="8" width="7.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="17" customWidth="1"/>
+    <col min="11" max="57" width="7.140625" style="17" customWidth="1"/>
     <col min="58" max="16384" width="6" style="17"/>
   </cols>
   <sheetData>
@@ -6831,7 +6834,7 @@
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
       <c r="AL39" s="46" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AM39" s="47"/>
       <c r="AN39" s="47"/>
@@ -6879,7 +6882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V2" sqref="V2:V33"/>
     </sheetView>
@@ -10359,7 +10362,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -10371,7 +10374,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="17"/>
       <c r="L35" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
@@ -10387,7 +10390,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA35" s="47"/>
       <c r="AB35" s="47"/>
@@ -13716,7 +13719,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -13728,7 +13731,7 @@
       <c r="J33" s="5"/>
       <c r="K33" s="17"/>
       <c r="L33" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
@@ -13744,7 +13747,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA33" s="47"/>
       <c r="AB33" s="47"/>
@@ -13794,7 +13797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
